--- a/P0024/09_FICHAS/N3-FD-General.xlsx
+++ b/P0024/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0024/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{BF8FBAE2-D25E-4C91-98FB-FDDF3263163F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89CBC6C9-6981-4D14-A2EF-E70056C46F76}"/>
+  <xr:revisionPtr revIDLastSave="591" documentId="13_ncr:1_{BF8FBAE2-D25E-4C91-98FB-FDDF3263163F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D25FEE7A-3487-4B13-8530-CA1AE160B9FE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$P$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$P$85</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="409">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -533,24 +533,6 @@
     <t>Conexion, La Mojana, hidriología, cuerpos de agua</t>
   </si>
   <si>
-    <t>R0031</t>
-  </si>
-  <si>
-    <t>LANDSAT</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/CARTOGRAFIA Y GEOGRAFIA/LANDSAT</t>
-  </si>
-  <si>
-    <t>Imagen GeoTIFF de la región de la Mojana</t>
-  </si>
-  <si>
-    <t>Carpeta</t>
-  </si>
-  <si>
-    <t>La Mojana, Imagenes, Satélite, LANDSAT</t>
-  </si>
-  <si>
     <t>R0032</t>
   </si>
   <si>
@@ -1100,61 +1082,25 @@
     <t>Protección de casco urbano, casco urbano.</t>
   </si>
   <si>
-    <t>NUEVA</t>
-  </si>
-  <si>
     <t>R0071</t>
   </si>
   <si>
-    <t>MojanaProtecciones</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/CARTOGRAFIA Y GEOGRAFIA/Información Mojana 11 Mun/ENTREGA_14_SEPT/Necesidad_2/GDB/MojanaProtecciones.gdb</t>
-  </si>
-  <si>
     <t>CAPELLA_C03_SM_GEO_HH_20220907024613_20220907024620_preview</t>
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/CARTOGRAFIA Y GEOGRAFIA/RADAR/CAPELLA_C03_SM_GEO_HH_20220907024613_20220907024620_preview.tif</t>
   </si>
   <si>
-    <t>R0072</t>
-  </si>
-  <si>
-    <t>MOJANA</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/CARTOGRAFIA Y GEOGRAFIA/Información Mojana 11 Mun/ENTREGA_14_SEPT/Necesidad_1/GDB/MOJANA.gdb</t>
-  </si>
-  <si>
-    <t>R0073</t>
-  </si>
-  <si>
-    <t>LC09_L2SP_009054_20220818_20220822_02_T1_QA_RADSAT</t>
-  </si>
-  <si>
-    <t>R0074</t>
-  </si>
-  <si>
-    <t>LC09_L2SP_009054_20220818_20220822_02_T1_SR_B1</t>
-  </si>
-  <si>
-    <t>R0075</t>
-  </si>
-  <si>
-    <t>LC09_L2SP_009054_20220818_20220822_02_T1_SR_B2</t>
-  </si>
-  <si>
     <t>R0076</t>
   </si>
   <si>
     <t>Mojana_T2</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad para toda el área de La Mojana para un periodo de retorno de 2 años. La variable presenta valor minimo xxxxx de y valor maximo de xxxxx. </t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR/Mojana_T2.grd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad de agua para el área de La Mojana para un periodo de retorno de 2 años. La variable presenta valor minimo 0 m de y valor maximo de 4,11m. </t>
   </si>
   <si>
     <t>grd</t>
@@ -1163,7 +1109,7 @@
     <t>No se tiene informe asociado para darle mayor valor y explicación a la información cartográfica presentada.</t>
   </si>
   <si>
-    <t>La Mojana, periodo de retorno</t>
+    <t>Produndidad de agua, La Mojana, inundación, periodo de retorno</t>
   </si>
   <si>
     <t>R0077</t>
@@ -1172,83 +1118,161 @@
     <t>Mojana_T10</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR/Mojana_T10.grd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad de agua para el área de La Mojana para un periodo de retorno de 10 años. La variable presenta valor minimo 0m de y valor maximo de 7,19m. </t>
+  </si>
+  <si>
     <t>R0078</t>
   </si>
   <si>
     <t>Mojana_T25</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR/Mojana_T25.grd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad de agua para el área de La Mojana para un periodo de retorno de 25 años. La variable presenta valor minimo 0m de y valor maximo de 7,19m. </t>
+  </si>
+  <si>
     <t>R0079</t>
   </si>
   <si>
     <t>Mojana_T50</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR/Mojana_T50.grd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad de agua para el área de La Mojana para un periodo de retorno de 50 años. La variable presenta valor minimo 0m de y valor maximo de 7,19m. </t>
+  </si>
+  <si>
     <t>R0080</t>
   </si>
   <si>
     <t>Mojana_T100</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR/Mojana_T100.grd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad de agua para el área de La Mojana para un periodo de retorno de 100 años. La variable presenta valor minimo 0m de y valor maximo de 7,19m. </t>
+  </si>
+  <si>
     <t>R0081</t>
   </si>
   <si>
     <t>Mojana_T250</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR/Mojana_T250.grd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad de agua para el área de La Mojana para un periodo de retorno de 250 años. La variable presenta valor minimo 0m de y valor maximo de 7,19m. </t>
+  </si>
+  <si>
     <t>R0082</t>
   </si>
   <si>
     <t>Mojana_T500</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR/Mojana_T500.grd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad de agua para el área de La Mojana para un periodo de retorno de 500 años. La variable presenta valor minimo 0m de y valor maximo de 7,19m. </t>
+  </si>
+  <si>
     <t>R0083</t>
   </si>
   <si>
     <t>Mojana_T1000</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR/Mojana_T1000.grd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad de agua para el área de La Mojana para un periodo de retorno de 1000 años. La variable presenta valor minimo 0m de y valor maximo de 7,19m. </t>
+  </si>
+  <si>
     <t>R0084</t>
   </si>
   <si>
     <t>Mojana_T2500</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR/Mojana_T2500.grd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad de agua para el área de La Mojana para un periodo de retorno de 2500 años. La variable presenta valor minimo 0m de y valor maximo de 7,19m. </t>
+  </si>
+  <si>
     <t>R0085</t>
   </si>
   <si>
     <t>Mojana_T5000</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR/Mojana_T5000.grd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad de agua para el área de La Mojana para un periodo de retorno de 5000 años. La variable presenta valor minimo 0m de y valor maximo de 7,19m. </t>
+  </si>
+  <si>
     <t>R0086</t>
   </si>
   <si>
     <t>Mojana_T10000</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR/Mojana_T10000.grd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad de agua para el área de La Mojana para un periodo de retorno de 10000 años. La variable presenta valor minimo 0m de y valor maximo de 7,19m. </t>
+  </si>
+  <si>
     <t>R0087</t>
   </si>
   <si>
     <t>Mojana_T100000</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR/Mojana_T100000.grd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad de agua para el área de La Mojana para un periodo de retorno de 100000 años. La variable presenta valor minimo 0m de y valor maximo de 7,19m. </t>
+  </si>
+  <si>
     <t>R0088</t>
   </si>
   <si>
     <t>Mojana_T1000000</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR/Mojana_T1000000.grd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad de agua para el área de La Mojana para un periodo de retorno de 1000000 años. La variable presenta valor minimo 0m de y valor maximo de 7,19m. </t>
+  </si>
+  <si>
     <t>R0089</t>
   </si>
   <si>
     <t>Mojana_T10000000</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0024/02_PRODUCTOS/INFRAESTRUCTURA Y PROYECTOS/TR/Mojana_T10000000.grd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo tipo raster que contiene el dato de profundidad de agua para el área de La Mojana para un periodo de retorno de 10000000 años. La variable presenta valor minimo 0m de y valor maximo de 7,19m. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,29 +1309,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -1365,7 +1384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1373,17 +1392,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1685,17 +1700,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y91"/>
+  <dimension ref="A1:Y85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="143.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="128.85546875" customWidth="1"/>
     <col min="16" max="16" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2550,7 +2565,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" s="3" customFormat="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2600,7 +2615,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" s="3" customFormat="1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2700,7 +2715,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2900,7 +2915,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" s="3" customFormat="1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2950,7 +2965,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" s="3" customFormat="1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3000,7 +3015,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" s="3" customFormat="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3249,54 +3264,54 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="11" t="s">
+    <row r="32" spans="1:16" s="3" customFormat="1">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F32" s="11">
-        <v>9999</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="11" t="s">
+      <c r="F32" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P32" s="11" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:25" s="3" customFormat="1">
@@ -3307,37 +3322,37 @@
         <v>17</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F33" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="I33" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>27</v>
@@ -3346,7 +3361,7 @@
         <v>28</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:25" s="3" customFormat="1">
@@ -3357,22 +3372,22 @@
         <v>17</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>34</v>
@@ -3396,8 +3411,9 @@
         <v>28</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>179</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y34" s="2"/>
     </row>
     <row r="35" spans="1:25" s="3" customFormat="1">
       <c r="A35" s="2" t="s">
@@ -3407,22 +3423,22 @@
         <v>17</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F35" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>34</v>
@@ -3434,7 +3450,7 @@
         <v>134</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>37</v>
@@ -3446,25 +3462,25 @@
         <v>28</v>
       </c>
       <c r="P35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y35" s="2"/>
+    </row>
+    <row r="36" spans="1:25" s="3" customFormat="1">
+      <c r="A36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="Y35" s="2"/>
-    </row>
-    <row r="36" spans="1:25" s="3" customFormat="1">
-      <c r="A36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F36" s="2">
         <v>9999</v>
@@ -3473,7 +3489,7 @@
         <v>27</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>34</v>
@@ -3485,7 +3501,7 @@
         <v>134</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>37</v>
@@ -3497,109 +3513,109 @@
         <v>28</v>
       </c>
       <c r="P36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y36" s="2"/>
+    </row>
+    <row r="37" spans="1:25" s="3" customFormat="1">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Y36" s="2"/>
-    </row>
-    <row r="37" spans="1:25" s="3" customFormat="1">
-      <c r="A37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="Y37" s="2"/>
+    </row>
+    <row r="38" spans="1:25" s="3" customFormat="1">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F37" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="M37" s="2" t="s">
+      <c r="L38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37" s="2" t="s">
+      <c r="N38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P37" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y37" s="2"/>
-    </row>
-    <row r="38" spans="1:25" s="3" customFormat="1">
-      <c r="A38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="P38" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F38" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="Y38" s="2"/>
     </row>
@@ -3611,22 +3627,22 @@
         <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F39" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>34</v>
@@ -3638,7 +3654,7 @@
         <v>134</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>37</v>
@@ -3650,7 +3666,7 @@
         <v>28</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Y39" s="2"/>
     </row>
@@ -3661,65 +3677,65 @@
       <c r="B40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="I40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F40" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="2" t="s">
+      <c r="Y40" s="2"/>
+    </row>
+    <row r="41" spans="1:25" s="3" customFormat="1">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P40" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="Y40" s="2"/>
-    </row>
-    <row r="41" spans="1:25" s="3" customFormat="1">
-      <c r="A41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F41" s="1">
         <v>9999</v>
@@ -3728,7 +3744,7 @@
         <v>27</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>34</v>
@@ -3752,25 +3768,25 @@
         <v>28</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Y41" s="2"/>
     </row>
     <row r="42" spans="1:25" s="3" customFormat="1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F42" s="1">
         <v>9999</v>
@@ -3779,7 +3795,7 @@
         <v>27</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>34</v>
@@ -3803,160 +3819,160 @@
         <v>28</v>
       </c>
       <c r="P42" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y42" s="2"/>
+    </row>
+    <row r="43" spans="1:25" s="3" customFormat="1">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="Y42" s="2"/>
-    </row>
-    <row r="43" spans="1:25" s="3" customFormat="1">
-      <c r="A43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y43" s="2"/>
+    </row>
+    <row r="44" spans="1:25" s="3" customFormat="1">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O43" s="1" t="s">
+      <c r="N44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P43" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y43" s="2"/>
-    </row>
-    <row r="44" spans="1:25" s="3" customFormat="1">
-      <c r="A44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="P44" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F44" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="2" t="s">
+      <c r="Y44" s="2"/>
+    </row>
+    <row r="45" spans="1:25" s="3" customFormat="1">
+      <c r="A45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="D45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O44" s="2" t="s">
+      <c r="N45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P44" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y44" s="2"/>
-    </row>
-    <row r="45" spans="1:25" s="3" customFormat="1">
-      <c r="A45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="P45" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F45" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="Y45" s="2"/>
     </row>
@@ -3968,22 +3984,22 @@
         <v>17</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F46" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>34</v>
@@ -4007,7 +4023,7 @@
         <v>28</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Y46" s="2"/>
     </row>
@@ -4019,22 +4035,22 @@
         <v>17</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F47" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>34</v>
@@ -4058,34 +4074,33 @@
         <v>28</v>
       </c>
       <c r="P47" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" s="3" customFormat="1">
+      <c r="A48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="Y47" s="2"/>
-    </row>
-    <row r="48" spans="1:25" s="3" customFormat="1">
-      <c r="A48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="E48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F48" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>34</v>
@@ -4094,7 +4109,7 @@
         <v>35</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>36</v>
@@ -4109,110 +4124,110 @@
         <v>28</v>
       </c>
       <c r="P48" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y48" s="2"/>
+    </row>
+    <row r="49" spans="1:25" s="3" customFormat="1">
+      <c r="A49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" s="3" customFormat="1">
-      <c r="A49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="E49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="I49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P49" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F49" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="2" t="s">
+      <c r="Y49" s="2"/>
+    </row>
+    <row r="50" spans="1:25" s="3" customFormat="1">
+      <c r="A50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O49" s="2" t="s">
+      <c r="N50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P49" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y49" s="2"/>
-    </row>
-    <row r="50" spans="1:25" s="3" customFormat="1">
-      <c r="A50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="P50" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F50" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y50" s="2"/>
     </row>
     <row r="51" spans="1:25" s="3" customFormat="1">
       <c r="A51" s="2" t="s">
@@ -4222,22 +4237,22 @@
         <v>17</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F51" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>34</v>
@@ -4246,7 +4261,7 @@
         <v>35</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>36</v>
@@ -4261,7 +4276,7 @@
         <v>28</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:25" s="3" customFormat="1">
@@ -4272,22 +4287,22 @@
         <v>17</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F52" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>34</v>
@@ -4296,7 +4311,7 @@
         <v>35</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>36</v>
@@ -4308,10 +4323,10 @@
         <v>27</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:25" s="3" customFormat="1">
@@ -4322,22 +4337,22 @@
         <v>17</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F53" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>34</v>
@@ -4346,7 +4361,7 @@
         <v>35</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>36</v>
@@ -4358,10 +4373,10 @@
         <v>27</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:25" s="3" customFormat="1">
@@ -4372,22 +4387,22 @@
         <v>17</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="2">
+        <v>9999</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F54" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>34</v>
@@ -4411,8 +4426,9 @@
         <v>28</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>255</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="Y54" s="2"/>
     </row>
     <row r="55" spans="1:25" s="3" customFormat="1">
       <c r="A55" s="2" t="s">
@@ -4421,80 +4437,80 @@
       <c r="B55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="F55" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F55" s="2">
-        <v>9999</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y55" s="2"/>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="D56" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F56" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J56" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y55" s="2"/>
-    </row>
-    <row r="56" spans="1:25" s="3" customFormat="1">
-      <c r="A56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F56" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>134</v>
@@ -4509,15 +4525,14 @@
         <v>27</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>263</v>
+      </c>
     </row>
     <row r="57" spans="1:25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -4530,16 +4545,16 @@
         <v>265</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F57" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="F57" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>34</v>
@@ -4560,48 +4575,48 @@
         <v>27</v>
       </c>
       <c r="O57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
-      <c r="A58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="F58" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F58" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>37</v>
@@ -4610,27 +4625,27 @@
         <v>27</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F59" s="1">
         <v>9999</v>
@@ -4639,7 +4654,7 @@
         <v>27</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>23</v>
@@ -4651,7 +4666,7 @@
         <v>25</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>37</v>
@@ -4667,7 +4682,7 @@
       </c>
     </row>
     <row r="60" spans="1:25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -4688,7 +4703,7 @@
       <c r="G60" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="10" t="s">
         <v>284</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -4701,7 +4716,7 @@
         <v>25</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>278</v>
+        <v>89</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>37</v>
@@ -4713,7 +4728,7 @@
         <v>285</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -4724,22 +4739,22 @@
         <v>17</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="F61" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>290</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>23</v>
@@ -4751,7 +4766,7 @@
         <v>25</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>37</v>
@@ -4760,14 +4775,14 @@
         <v>27</v>
       </c>
       <c r="O61" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P61" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="P61" s="1" t="s">
-        <v>286</v>
-      </c>
     </row>
     <row r="62" spans="1:25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -4817,7 +4832,7 @@
       </c>
     </row>
     <row r="63" spans="1:25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -4867,7 +4882,7 @@
       </c>
     </row>
     <row r="64" spans="1:25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -4917,7 +4932,7 @@
       </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -4948,10 +4963,10 @@
         <v>82</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>37</v>
@@ -4967,7 +4982,7 @@
       </c>
     </row>
     <row r="66" spans="1:16">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -5010,930 +5025,972 @@
         <v>27</v>
       </c>
       <c r="O66" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="P66" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="P66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F67" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H67" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="J67" s="1" t="s">
-        <v>82</v>
+        <v>326</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>134</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O67" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="P67" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="B68" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="D68" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="F68" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H68" s="1" t="s">
+      <c r="E68" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="F68" s="8">
+        <v>9999</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="I68" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O68" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O68" s="1" t="s">
+      <c r="P68" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="P68" s="1" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="A69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F69" s="10">
-        <v>9999</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H69" s="10" t="s">
+      <c r="F69" s="7">
+        <v>9999</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="I69" s="10" t="s">
+      <c r="I69" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J69" s="10" t="s">
+      <c r="J69" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F70" s="7">
+        <v>9999</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N70" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="6" customFormat="1">
+      <c r="A71" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="F71" s="9">
+        <v>9999</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K71" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L69" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="M69" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N69" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O69" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="P69" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="F70" s="8">
-        <v>9999</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I70" s="8" t="s">
+      <c r="L71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P71" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="13" customFormat="1">
+      <c r="A72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F72" s="11">
+        <v>2016</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="I72" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K70" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N70" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O70" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="P70" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="F71" s="8">
-        <v>9999</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="I71" s="8" t="s">
+      <c r="J72" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P72" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="13" customFormat="1">
+      <c r="A73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F73" s="11">
+        <v>2016</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="I73" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K71" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N71" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="P71" s="8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="A72" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="9" t="s">
+      <c r="J73" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="K73" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O73" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="P73" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-    </row>
-    <row r="73" spans="1:16" s="6" customFormat="1">
-      <c r="A73" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="12" t="s">
+    </row>
+    <row r="74" spans="1:16" s="13" customFormat="1">
+      <c r="A74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F74" s="11">
+        <v>2016</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="D73" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="F73" s="12">
-        <v>9999</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="I73" s="12" t="s">
+      <c r="K74" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O74" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P74" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="13" customFormat="1">
+      <c r="A75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="F75" s="11">
+        <v>2016</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="I75" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J73" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K73" s="12" t="s">
+      <c r="J75" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="K75" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L73" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M73" s="12" t="s">
+      <c r="L75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N73" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O73" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P73" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" s="6" customFormat="1">
-      <c r="A74" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-    </row>
-    <row r="75" spans="1:16" s="6" customFormat="1">
-      <c r="A75" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-    </row>
-    <row r="76" spans="1:16" s="6" customFormat="1">
-      <c r="A76" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-    </row>
-    <row r="77" spans="1:16" s="6" customFormat="1">
-      <c r="A77" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-    </row>
-    <row r="78" spans="1:16" s="16" customFormat="1">
-      <c r="A78" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="D78" s="15" t="s">
+      <c r="N75" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O75" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P75" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="13" customFormat="1">
+      <c r="A76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="D76" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="F78" s="13">
+      <c r="E76" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F76" s="11">
         <v>2016</v>
       </c>
-      <c r="G78" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="I78" s="13" t="s">
+      <c r="G76" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="I76" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J78" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="K78" s="13" t="s">
+      <c r="J76" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="K76" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L78" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M78" s="13" t="s">
+      <c r="L76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M76" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N78" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O78" s="13" t="s">
+      <c r="N76" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O76" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P76" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="13" customFormat="1">
+      <c r="A77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="P78" s="13" t="s">
+      <c r="D77" s="12" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" s="16" customFormat="1">
-      <c r="A79" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="14" t="s">
+      <c r="E77" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="F77" s="11">
+        <v>2016</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="E79" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F79" s="13">
+      <c r="I77" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O77" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P77" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" s="13" customFormat="1">
+      <c r="A78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="F78" s="11">
         <v>2016</v>
       </c>
-      <c r="G79" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-    </row>
-    <row r="80" spans="1:16" s="16" customFormat="1">
-      <c r="A80" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F80" s="13">
+      <c r="G78" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O78" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P78" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="13" customFormat="1">
+      <c r="A79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="F79" s="11">
         <v>2016</v>
       </c>
-      <c r="G80" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-    </row>
-    <row r="81" spans="1:16" s="16" customFormat="1">
-      <c r="A81" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F81" s="13">
+      <c r="G79" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O79" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P79" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="13" customFormat="1">
+      <c r="A80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F80" s="11">
         <v>2016</v>
       </c>
-      <c r="G81" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-    </row>
-    <row r="82" spans="1:16" s="16" customFormat="1">
-      <c r="A82" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F82" s="13">
+      <c r="G80" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P80" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="13" customFormat="1">
+      <c r="A81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F81" s="11">
         <v>2016</v>
       </c>
-      <c r="G82" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-    </row>
-    <row r="83" spans="1:16" s="16" customFormat="1">
-      <c r="A83" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F83" s="13">
+      <c r="G81" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O81" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P81" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="13" customFormat="1">
+      <c r="A82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F82" s="11">
         <v>2016</v>
       </c>
-      <c r="G83" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-    </row>
-    <row r="84" spans="1:16" s="16" customFormat="1">
-      <c r="A84" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F84" s="13">
+      <c r="G82" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P82" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="13" customFormat="1">
+      <c r="A83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F83" s="11">
         <v>2016</v>
       </c>
-      <c r="G84" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-    </row>
-    <row r="85" spans="1:16" s="16" customFormat="1">
-      <c r="A85" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F85" s="13">
+      <c r="G83" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O83" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P83" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" s="13" customFormat="1">
+      <c r="A84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F84" s="11">
         <v>2016</v>
       </c>
-      <c r="G85" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
-    </row>
-    <row r="86" spans="1:16" s="16" customFormat="1">
-      <c r="A86" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F86" s="13">
+      <c r="G84" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O84" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P84" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="13" customFormat="1">
+      <c r="A85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F85" s="11">
         <v>2016</v>
       </c>
-      <c r="G86" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-    </row>
-    <row r="87" spans="1:16" s="16" customFormat="1">
-      <c r="A87" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F87" s="13">
-        <v>2016</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13"/>
-    </row>
-    <row r="88" spans="1:16" s="16" customFormat="1">
-      <c r="A88" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F88" s="13">
-        <v>2016</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
-    </row>
-    <row r="89" spans="1:16" s="16" customFormat="1">
-      <c r="A89" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F89" s="13">
-        <v>2016</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13"/>
-    </row>
-    <row r="90" spans="1:16" s="16" customFormat="1">
-      <c r="A90" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F90" s="13">
-        <v>2016</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13"/>
-    </row>
-    <row r="91" spans="1:16" s="16" customFormat="1">
-      <c r="A91" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F91" s="13">
-        <v>2016</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
+      <c r="G85" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O85" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="P85" s="11" t="s">
+        <v>356</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P91" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P91">
-      <sortCondition ref="C1:C91"/>
+  <autoFilter ref="A1:P85" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P85">
+      <sortCondition ref="C1:C85"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="D92:D1048576 D1:D77">
+  <conditionalFormatting sqref="D86:D1048576 D1:D71">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y35:Y47 Y49:Y50 Y55:Y56">
+  <conditionalFormatting sqref="Y34:Y46 Y48:Y49 Y54:Y55">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/P0024/09_FICHAS/N3-FD-General.xlsx
+++ b/P0024/09_FICHAS/N3-FD-General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0024/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="591" documentId="13_ncr:1_{BF8FBAE2-D25E-4C91-98FB-FDDF3263163F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D25FEE7A-3487-4B13-8530-CA1AE160B9FE}"/>
+  <xr:revisionPtr revIDLastSave="592" documentId="13_ncr:1_{BF8FBAE2-D25E-4C91-98FB-FDDF3263163F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39393EF6-CF19-454B-8E43-1752C37616FE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1272,7 +1272,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1703,18 +1703,18 @@
   <dimension ref="A1:Y85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="128.85546875" customWidth="1"/>
     <col min="16" max="16" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1">
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="3" customFormat="1">
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1">
+    <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1">
+    <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1">
+    <row r="10" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1">
+    <row r="11" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1">
+    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="5" customFormat="1">
+    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="5" customFormat="1">
+    <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="5" customFormat="1">
+    <row r="15" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="5" customFormat="1">
+    <row r="16" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1">
+    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1">
+    <row r="18" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1">
+    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1">
+    <row r="20" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="3" customFormat="1">
+    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1">
+    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1">
+    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="3" customFormat="1">
+    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="3" customFormat="1">
+    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>16</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="3" customFormat="1">
+    <row r="26" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1">
+    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1">
+    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1">
+    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1">
+    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1">
+    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="3" customFormat="1">
+    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="3" customFormat="1">
+    <row r="33" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="3" customFormat="1">
+    <row r="34" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>16</v>
       </c>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:25" s="3" customFormat="1">
+    <row r="35" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="1:25" s="3" customFormat="1">
+    <row r="36" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:25" s="3" customFormat="1">
+    <row r="37" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="1:25" s="3" customFormat="1">
+    <row r="38" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="1:25" s="3" customFormat="1">
+    <row r="39" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:25" s="3" customFormat="1">
+    <row r="40" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:25" s="3" customFormat="1">
+    <row r="41" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="1:25" s="3" customFormat="1">
+    <row r="42" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="1:25" s="3" customFormat="1">
+    <row r="43" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>16</v>
       </c>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="1:25" s="3" customFormat="1">
+    <row r="44" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:25" s="3" customFormat="1">
+    <row r="45" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="1:25" s="3" customFormat="1">
+    <row r="46" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="1:25" s="3" customFormat="1">
+    <row r="47" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="3" customFormat="1">
+    <row r="48" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49" spans="1:25" s="3" customFormat="1">
+    <row r="49" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:25" s="3" customFormat="1">
+    <row r="50" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="51" spans="1:25" s="3" customFormat="1">
+    <row r="51" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="3" customFormat="1">
+    <row r="52" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="3" customFormat="1">
+    <row r="53" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>16</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:25" s="3" customFormat="1">
+    <row r="54" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>16</v>
       </c>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="1:25" s="3" customFormat="1">
+    <row r="55" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>16</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>16</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>16</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>16</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>16</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>16</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>16</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>16</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="6" customFormat="1">
+    <row r="71" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>16</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:16" s="13" customFormat="1">
+    <row r="72" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>16</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="13" customFormat="1">
+    <row r="73" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>16</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="13" customFormat="1">
+    <row r="74" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>16</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="13" customFormat="1">
+    <row r="75" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>16</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="13" customFormat="1">
+    <row r="76" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="13" customFormat="1">
+    <row r="77" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>16</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="13" customFormat="1">
+    <row r="78" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>16</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="13" customFormat="1">
+    <row r="79" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>16</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="13" customFormat="1">
+    <row r="80" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="13" customFormat="1">
+    <row r="81" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>16</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="13" customFormat="1">
+    <row r="82" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>16</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="83" spans="1:16" s="13" customFormat="1">
+    <row r="83" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="84" spans="1:16" s="13" customFormat="1">
+    <row r="84" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>16</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="85" spans="1:16" s="13" customFormat="1">
+    <row r="85" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>16</v>
       </c>
@@ -5982,11 +5982,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P85" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P85">
-      <sortCondition ref="C1:C85"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="D86:D1048576 D1:D71">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
